--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7544_field_access_error/EPBDS-7544_error.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7544_field_access_error/EPBDS-7544_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\openl-pub\STUDIO\org.openl.rules.test\test-resources\functionality\EPBDS-7544_field_access\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\STUDIO\org.openl.rules.test\test-resources\functionality\EPBDS-7544_field_access_error\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BE7A0D-15E7-4E58-BA0D-6376E2E05DA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DCF6BD-79DA-4A37-81C7-1BA83C3E862C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E59F7472-A9D2-4FC2-8ED3-4C22BD94DB84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E59F7472-A9D2-4FC2-8ED3-4C22BD94DB84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Step</t>
   </si>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t>= ChildWithId.id</t>
+  </si>
+  <si>
+    <t>case21</t>
+  </si>
+  <si>
+    <t>case22</t>
+  </si>
+  <si>
+    <t>case23</t>
+  </si>
+  <si>
+    <t>case24</t>
+  </si>
+  <si>
+    <t>Datatype MyType</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>= AccessBean.getClass()</t>
+  </si>
+  <si>
+    <t>= MyType.getClass()</t>
+  </si>
+  <si>
+    <t>= MyType.value</t>
+  </si>
+  <si>
+    <t>= MyType.getValue()</t>
   </si>
 </sst>
 </file>
@@ -116,15 +152,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B72988DF-F47F-4438-80D5-32C51C31A17F}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,33 +471,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DCC082-B645-4260-A0B9-5F0428966443}">
-  <dimension ref="B4:G8"/>
+  <dimension ref="B4:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -472,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -480,17 +515,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
